--- a/Broad Air/36504/matrix.xlsx
+++ b/Broad Air/36504/matrix.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Broad Air\36504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F489E4C-3FA7-4401-8DEA-8E92A5F2C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60382DA7-8177-4125-8249-1A0E2B22C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1110" windowWidth="28905" windowHeight="18450" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
+    <workbookView xWindow="9285" yWindow="1050" windowWidth="26775" windowHeight="17745" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">matrix!$A$1:$H$277</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="244">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -40,9 +43,6 @@
     <t>Tag 2</t>
   </si>
   <si>
-    <t>Overall Progress</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -53,6 +53,708 @@
   </si>
   <si>
     <t>Columns</t>
+  </si>
+  <si>
+    <t>rough in</t>
+  </si>
+  <si>
+    <t>apartment wall closure</t>
+  </si>
+  <si>
+    <t>apartment ceiling closure</t>
+  </si>
+  <si>
+    <t>Level-3 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-3</t>
+  </si>
+  <si>
+    <t>Level-3 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-4 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-4</t>
+  </si>
+  <si>
+    <t>Level-4 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-5 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-5</t>
+  </si>
+  <si>
+    <t>Level-5 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-6 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-6</t>
+  </si>
+  <si>
+    <t>Level-6 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-7 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-7</t>
+  </si>
+  <si>
+    <t>Level-7 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-8 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-8</t>
+  </si>
+  <si>
+    <t>Level-8 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-9 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-9</t>
+  </si>
+  <si>
+    <t>Level-9 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-10 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-10</t>
+  </si>
+  <si>
+    <t>Level-10 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-11 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-11</t>
+  </si>
+  <si>
+    <t>Level-11 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-12 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-12</t>
+  </si>
+  <si>
+    <t>Level-12 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-13 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-13</t>
+  </si>
+  <si>
+    <t>Level-13 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-14 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-14</t>
+  </si>
+  <si>
+    <t>Level-14 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-15 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-15</t>
+  </si>
+  <si>
+    <t>Level-15 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-16 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-16</t>
+  </si>
+  <si>
+    <t>Level-16 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-17 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-17</t>
+  </si>
+  <si>
+    <t>Level-17 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-18 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-18</t>
+  </si>
+  <si>
+    <t>Level-18 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>Level-19 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>level-19</t>
+  </si>
+  <si>
+    <t>Level-19 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>FCU installed in right location as per mechanical layout &amp; the model number is in accordance with latest AC schedule?</t>
+  </si>
+  <si>
+    <t>fcu installed in right location as per mechanical layout and the model number is in accordance with latest ac schedule?</t>
+  </si>
+  <si>
+    <t>FCU installed at right height to ensure grille is centred into the bulkhead &amp; 5% slope towards drain point?</t>
+  </si>
+  <si>
+    <t>fcu installed at right height to ensure grille is centred into the bulkhead &amp; 5% slope towards drain point?</t>
+  </si>
+  <si>
+    <t>Thermostat control cabling has been installed?</t>
+  </si>
+  <si>
+    <t>thermostat control cabling has been installed?</t>
+  </si>
+  <si>
+    <t>Thermostat location is correct as per RCP?</t>
+  </si>
+  <si>
+    <t>thermostat location is correct as per rcp?</t>
+  </si>
+  <si>
+    <t>Drains have been run to Tundish &amp; does not protrude wall framing?</t>
+  </si>
+  <si>
+    <t>drains have been run to tundish and does not protrude wall framing?</t>
+  </si>
+  <si>
+    <t>Drains tested &amp; witnessed by Boad Air?</t>
+  </si>
+  <si>
+    <t>drains tested and witnessed by boad air?</t>
+  </si>
+  <si>
+    <t>All wiring including interconnection wiring &amp; power from isolator to the condensers are roughed without defect?</t>
+  </si>
+  <si>
+    <t>all wiring including interconnection wiring and power from isolator to the condensers are roughed without defect?</t>
+  </si>
+  <si>
+    <t>Refrigeration pipes have been installed &amp; all refnets are sealed &amp; hard to soffit &amp; don’t impede on ceiling height?</t>
+  </si>
+  <si>
+    <t>refrigeration pipes have been installed and all refnets are sealed and hard to soffit and don’t impede on ceiling height?</t>
+  </si>
+  <si>
+    <t>Refrigeration insulation is not damaged?</t>
+  </si>
+  <si>
+    <t>refrigeration insulation is not damaged?</t>
+  </si>
+  <si>
+    <t>Refrigeration pipes run through cavity without being kinked or damaged?</t>
+  </si>
+  <si>
+    <t>refrigeration pipes run through cavity without being kinked or damaged?</t>
+  </si>
+  <si>
+    <t>Pipe projecting the wall cavities in balconies have been sealed?</t>
+  </si>
+  <si>
+    <t>pipe projecting the wall cavities in balconies have been sealed?</t>
+  </si>
+  <si>
+    <t>Exhaust Vent &amp; Make up Air boxes are installed as per drawings &amp; sealed?</t>
+  </si>
+  <si>
+    <t>exhaust vent &amp; make up air boxes are installed as per drawings and sealed?</t>
+  </si>
+  <si>
+    <t>Air Conditioning</t>
+  </si>
+  <si>
+    <t>air conditioning</t>
+  </si>
+  <si>
+    <t>air conditioning:</t>
+  </si>
+  <si>
+    <t>Air Conditioning - Inspection Date:</t>
+  </si>
+  <si>
+    <t>Inspection Date:</t>
+  </si>
+  <si>
+    <t>Air Conditioning - FCUs are installed &amp; other services are not impeding access to fan coil?</t>
+  </si>
+  <si>
+    <t>fcus are installed and other services are not impeding access to fan coil?</t>
+  </si>
+  <si>
+    <t>Air Conditioning - FCU filter track &amp; filters are installed &amp; nearby service is not impede filter access?</t>
+  </si>
+  <si>
+    <t>fcu filter track and filters are installed and nearby service is not impede filter access?</t>
+  </si>
+  <si>
+    <t>Air Conditioning - Wiring connected to indoor unit electrical box?</t>
+  </si>
+  <si>
+    <t>wiring connected to indoor unit electrical box?</t>
+  </si>
+  <si>
+    <t>Air Conditioning - Condensate line has 2% fail towards the tundish &amp; has support every 1m-1.5m?</t>
+  </si>
+  <si>
+    <t>condensate line has 2% fail towards the tundish and has support every 1m-1.5m?</t>
+  </si>
+  <si>
+    <t>Air Conditioning - Refrigeration lines supported by pipe clamps to avoid damage the insulation?</t>
+  </si>
+  <si>
+    <t>refrigeration lines supported by pipe clamps to avoid damage the insulation?</t>
+  </si>
+  <si>
+    <t>Air Conditioning - All FCU flexible ducts connections to air terminals &amp; spigots have been air tight by using duct tape?</t>
+  </si>
+  <si>
+    <t>all fcu flexible ducts connections to air terminals and spigots have been air tight by using duct tape?</t>
+  </si>
+  <si>
+    <t>Air Conditioning - All FCU flexible ducts installed &amp; supported by intact load spreader?</t>
+  </si>
+  <si>
+    <t>all fcu flexible ducts installed and supported by intact load spreader?</t>
+  </si>
+  <si>
+    <t>Air Conditioning - All FCU flexible ducts connections to air terminals &amp; spigots have been secured by using fixing ties/cables ties</t>
+  </si>
+  <si>
+    <t>all fcu flexible ducts connections to air terminals and spigots have been secured by using fixing ties/cables ties</t>
+  </si>
+  <si>
+    <t>Air Conditioning - Supply boxes are installed &amp; supported at correct location in the middle of bulkhead height?</t>
+  </si>
+  <si>
+    <t>supply boxes are installed and supported at correct location in the middle of bulkhead height?</t>
+  </si>
+  <si>
+    <t>Ventilation</t>
+  </si>
+  <si>
+    <t>ventilation:</t>
+  </si>
+  <si>
+    <t>ventilation</t>
+  </si>
+  <si>
+    <t>Ventilation - Inspection Date:</t>
+  </si>
+  <si>
+    <t>Ventilation - Vent fans are installed with rubber isolation in the correct location as per drawing?</t>
+  </si>
+  <si>
+    <t>vent fans are installed with rubber isolation in the correct location as per drawing?</t>
+  </si>
+  <si>
+    <t>Ventilation - All flex are installed &amp; supported by intact load spreaders?</t>
+  </si>
+  <si>
+    <t>all flex are installed and supported by intact load spreaders?</t>
+  </si>
+  <si>
+    <t>Ventilation - All flexible ducts inner core &amp; outer core have been mechanically secured &amp; taped to spigots &amp; air terminals by using duct tape &amp; fixing/cable ties?</t>
+  </si>
+  <si>
+    <t>all flexible ducts inner core and outer core have been mechanically secured &amp; taped to spigots and air terminals by using duct tape &amp; fixing/cable ties?</t>
+  </si>
+  <si>
+    <t>Ventilation - Flexible ducts run on the right location &amp; not jammed?</t>
+  </si>
+  <si>
+    <t>flexible ducts run on the right location and not jammed?</t>
+  </si>
+  <si>
+    <t>Ventilation - Butterfly dampers are installed &amp; they are in a fully opened position &amp; air tight sealed?</t>
+  </si>
+  <si>
+    <t>butterfly dampers are installed and they are in a fully opened position and air tight sealed?</t>
+  </si>
+  <si>
+    <t>Ventilation - PVC ducts have been hung at correct height &amp; supported by hanging straps?</t>
+  </si>
+  <si>
+    <t>pvc ducts have been hung at correct height and supported by hanging straps?</t>
+  </si>
+  <si>
+    <t>Access Panel</t>
+  </si>
+  <si>
+    <t>access panel</t>
+  </si>
+  <si>
+    <t>access panel:</t>
+  </si>
+  <si>
+    <t>Access Panel - Inspection Date:</t>
+  </si>
+  <si>
+    <t>Access Panel - Access Panel location has been marked on floor as per RCP &amp; has been checked</t>
+  </si>
+  <si>
+    <t>access panel location has been marked on floor as per rcp and has been checked</t>
+  </si>
+  <si>
+    <t>Access Panel - All other services do not impede access</t>
+  </si>
+  <si>
+    <t>all other services do not impede access</t>
+  </si>
+  <si>
+    <t>common area</t>
+  </si>
+  <si>
+    <t>Level-3</t>
+  </si>
+  <si>
+    <t>Level-4</t>
+  </si>
+  <si>
+    <t>Level-5</t>
+  </si>
+  <si>
+    <t>Level-6</t>
+  </si>
+  <si>
+    <t>Level-7</t>
+  </si>
+  <si>
+    <t>Level-8</t>
+  </si>
+  <si>
+    <t>Level-9</t>
+  </si>
+  <si>
+    <t>Level-10</t>
+  </si>
+  <si>
+    <t>Level-11</t>
+  </si>
+  <si>
+    <t>Level-12</t>
+  </si>
+  <si>
+    <t>Level-13</t>
+  </si>
+  <si>
+    <t>Level-14</t>
+  </si>
+  <si>
+    <t>Level-15</t>
+  </si>
+  <si>
+    <t>Level-16</t>
+  </si>
+  <si>
+    <t>Level-17</t>
+  </si>
+  <si>
+    <t>Level-18</t>
+  </si>
+  <si>
+    <t>Level-19</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are drawings on site the latest issue</t>
+  </si>
+  <si>
+    <t>duct installation checklist</t>
+  </si>
+  <si>
+    <t>are drawings on site the latest issue</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are plant &amp; equipment location correct</t>
+  </si>
+  <si>
+    <t>are plant and equipment location correct</t>
+  </si>
+  <si>
+    <t>Duct Installation - Fan in the duct run has been installed</t>
+  </si>
+  <si>
+    <t>fan in the duct run has been installed</t>
+  </si>
+  <si>
+    <t>Duct Installation - Model of the fan is correct as per latest Fan Schedule</t>
+  </si>
+  <si>
+    <t>model of the fan is correct as per latest fan schedule</t>
+  </si>
+  <si>
+    <t>Duct Installation - Duct size &amp; location correct</t>
+  </si>
+  <si>
+    <t>duct size and location correct</t>
+  </si>
+  <si>
+    <t>Duct Installation - Material &amp; gauge correct</t>
+  </si>
+  <si>
+    <t>material and gauge correct</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is correct support method being used - Risers are supported at each level.</t>
+  </si>
+  <si>
+    <t>is correct support method being used - risers are supported at each level.</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is correct jointing method being used</t>
+  </si>
+  <si>
+    <t>is correct jointing method being used</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are joints completed &amp; cleated installed on flanges</t>
+  </si>
+  <si>
+    <t>are joints completed and cleated installed on flanges</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is correct joint sealant being used</t>
+  </si>
+  <si>
+    <t>is correct joint sealant being used</t>
+  </si>
+  <si>
+    <t>Duct Installation - Has the spacer been placed between the fan &amp; the silencer, &amp; the splitter orientation rotated by 90°?</t>
+  </si>
+  <si>
+    <t>has the spacer been placed between the fan and the silencer, and the splitter orientation rotated by 90°?</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is 1 diameter of straight duct between pod attenuator &amp; fan inlet been allowed to ensure impeller obtains even flow?</t>
+  </si>
+  <si>
+    <t>is 1 diameter of straight duct between pod attenuator and fan inlet been allowed to ensure impeller obtains even flow?</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is adequate distance between attenuator &amp; fans been maintained?</t>
+  </si>
+  <si>
+    <t>is adequate distance between attenuator and fans been maintained?</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are the attenuator splitters in the plane of the bend ?</t>
+  </si>
+  <si>
+    <t>are the attenuator splitters in the plane of the bend ?</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are transitions close to attenuators gradual?</t>
+  </si>
+  <si>
+    <t>are transitions close to attenuators gradual?</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is a settling duct between volume control dampers &amp; attenuators allowed?</t>
+  </si>
+  <si>
+    <t>is a settling duct between volume control dampers and attenuators allowed?</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are fire dampers installed &amp; break away joint complete</t>
+  </si>
+  <si>
+    <t>are fire dampers installed and break away joint complete</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are flexible ducts installed, supported &amp; connected to spigot by approved method using duct tape on internal core &amp; cable tie on outer core</t>
+  </si>
+  <si>
+    <t>are flexible ducts installed, supported and connected to spigot by approved method using duct tape on internal core and cable tie on outer core</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are flexible connections to equipment sealed &amp; aligned</t>
+  </si>
+  <si>
+    <t>are flexible connections to equipment sealed and aligned</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is ductwork insulation as per drawings</t>
+  </si>
+  <si>
+    <t>is ductwork insulation as per drawings</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is ductwork fire rating complete</t>
+  </si>
+  <si>
+    <t>is ductwork fire rating complete</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are all spigots installed &amp; dampers fully open</t>
+  </si>
+  <si>
+    <t>are all spigots installed and dampers fully open</t>
+  </si>
+  <si>
+    <t>Duct Installation - Are all access panels for fire damper access installed &amp; closed</t>
+  </si>
+  <si>
+    <t>are all access panels for fire damper access installed and closed</t>
+  </si>
+  <si>
+    <t>Duct Installation - Is ductwork installation complete</t>
+  </si>
+  <si>
+    <t>is ductwork installation complete</t>
+  </si>
+  <si>
+    <t>Lobby Area - Lobby Area:</t>
+  </si>
+  <si>
+    <t>lobby area:</t>
+  </si>
+  <si>
+    <t>lobby area</t>
+  </si>
+  <si>
+    <t>Lobby Area - Inspection Date:</t>
+  </si>
+  <si>
+    <t>Lobby Area - Other services installed are not impeding access to fan coil</t>
+  </si>
+  <si>
+    <t>other services installed are not impeding access to fan coil</t>
+  </si>
+  <si>
+    <t>Lobby Area - All Ductwork passing block walls are flushed &amp; sealed</t>
+  </si>
+  <si>
+    <t>all ductwork passing block walls are flushed and sealed</t>
+  </si>
+  <si>
+    <t>Lobby Area - Transfer duct installed at Accessible toilet wall &amp; penetration flushed &amp; sealed</t>
+  </si>
+  <si>
+    <t>transfer duct installed at accessible toilet wall and penetration flushed and sealed</t>
+  </si>
+  <si>
+    <t>Lobby Area - Where passing the block wall flexible ducts has been equipped with Sleeve &amp; penetration sealed</t>
+  </si>
+  <si>
+    <t>where passing the block wall flexible ducts has been equipped with sleeve and penetration sealed</t>
+  </si>
+  <si>
+    <t>Lobby Area - Refrigerant pipes passing through fire rarted walls are sealed at wall penetration by using approved material</t>
+  </si>
+  <si>
+    <t>refrigerant pipes passing through fire rarted walls are sealed at wall penetration by using approved material</t>
+  </si>
+  <si>
+    <t>Ducting - Riser</t>
+  </si>
+  <si>
+    <t>riser</t>
+  </si>
+  <si>
+    <t>ducting-common area</t>
+  </si>
+  <si>
+    <t>Ducting - Are drawings on site the latest issue</t>
+  </si>
+  <si>
+    <t>Ducting - Are plant &amp; equipment location correct</t>
+  </si>
+  <si>
+    <t>Ducting - Duct size &amp; location correct</t>
+  </si>
+  <si>
+    <t>Ducting - Material &amp; gauge correct</t>
+  </si>
+  <si>
+    <t>Ducting - Is correct support method being used - Maximum vertical support to be 3600mm using AS 4254 approved method</t>
+  </si>
+  <si>
+    <t>is correct support method being used - maximum vertical support to be 3600mm using as 4254 approved method</t>
+  </si>
+  <si>
+    <t>Ducting - Is correct Joining method being used</t>
+  </si>
+  <si>
+    <t>is correct joining method being used</t>
+  </si>
+  <si>
+    <t>Ducting - Are joints completed &amp; cleated installed on flanges</t>
+  </si>
+  <si>
+    <t>Ducting - Is correct joint sealant being used</t>
+  </si>
+  <si>
+    <t>Ducting - Is ductwork installation complete</t>
+  </si>
+  <si>
+    <t>Rough In (BUILDING-C)</t>
+  </si>
+  <si>
+    <t>Rough In (BUILDING-D)</t>
+  </si>
+  <si>
+    <t>Rough In (BUILDING-C / Common Area)</t>
+  </si>
+  <si>
+    <t>Rough In (BUILDING-D / Common Area)</t>
+  </si>
+  <si>
+    <t>Rough In</t>
+  </si>
+  <si>
+    <t>Common Area</t>
+  </si>
+  <si>
+    <t>building-c</t>
+  </si>
+  <si>
+    <t>building-d</t>
+  </si>
+  <si>
+    <t>Level-20</t>
+  </si>
+  <si>
+    <t>level-20</t>
+  </si>
+  <si>
+    <t>Level-20 (Apartment Wall Closure)</t>
+  </si>
+  <si>
+    <t>Level-20 (Apartment Ceiling Closure)</t>
+  </si>
+  <si>
+    <t>BUILDING-C</t>
+  </si>
+  <si>
+    <t>BUILDING-D</t>
   </si>
 </sst>
 </file>
@@ -195,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +1077,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -536,8 +1256,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,21 +1636,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,32 +1671,4106 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>112</v>
+      </c>
+      <c r="G72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>237</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>237</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>237</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>237</v>
+      </c>
+      <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>237</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>237</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>237</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
+        <v>237</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>237</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>237</v>
+      </c>
+      <c r="F95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>237</v>
+      </c>
+      <c r="G96" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
+        <v>237</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>237</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>237</v>
+      </c>
+      <c r="G100" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>237</v>
+      </c>
+      <c r="F101" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>237</v>
+      </c>
+      <c r="G102" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>237</v>
+      </c>
+      <c r="F103" t="s">
+        <v>47</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>237</v>
+      </c>
+      <c r="G104" t="s">
+        <v>47</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>237</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>237</v>
+      </c>
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>237</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>237</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>237</v>
+      </c>
+      <c r="F109" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>237</v>
+      </c>
+      <c r="G110" t="s">
+        <v>56</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" t="s">
+        <v>237</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" t="s">
+        <v>237</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>61</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>62</v>
+      </c>
+      <c r="F113" t="s">
+        <v>237</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" t="s">
+        <v>237</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>66</v>
+      </c>
+      <c r="E117" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E119" t="s">
+        <v>71</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>72</v>
+      </c>
+      <c r="E120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>74</v>
+      </c>
+      <c r="E121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E127" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>88</v>
+      </c>
+      <c r="E128" t="s">
+        <v>89</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129" t="s">
+        <v>92</v>
+      </c>
+      <c r="E129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>93</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>90</v>
+      </c>
+      <c r="G130" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>90</v>
+      </c>
+      <c r="G131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>97</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>100</v>
+      </c>
+      <c r="G133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>90</v>
+      </c>
+      <c r="G135" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>105</v>
+      </c>
+      <c r="E136" t="s">
+        <v>106</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>107</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>90</v>
+      </c>
+      <c r="G137" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>111</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s">
+        <v>112</v>
+      </c>
+      <c r="G139" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>114</v>
+      </c>
+      <c r="D140" t="s">
+        <v>92</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>112</v>
+      </c>
+      <c r="G140" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>115</v>
+      </c>
+      <c r="E141" t="s">
+        <v>116</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>117</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>112</v>
+      </c>
+      <c r="G142" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>112</v>
+      </c>
+      <c r="G143" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>121</v>
+      </c>
+      <c r="E144" t="s">
+        <v>122</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>123</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>124</v>
+      </c>
+      <c r="G145" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s">
+        <v>112</v>
+      </c>
+      <c r="G146" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>127</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" t="s">
+        <v>128</v>
+      </c>
+      <c r="G147" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>130</v>
+      </c>
+      <c r="D148" t="s">
+        <v>92</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s">
+        <v>128</v>
+      </c>
+      <c r="G148" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>131</v>
+      </c>
+      <c r="E149" t="s">
+        <v>132</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" t="s">
+        <v>134</v>
+      </c>
+      <c r="G150" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>136</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>236</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>135</v>
+      </c>
+      <c r="H155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>137</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>236</v>
+      </c>
+      <c r="F156" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" t="s">
+        <v>135</v>
+      </c>
+      <c r="H156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>138</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>236</v>
+      </c>
+      <c r="F157" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>135</v>
+      </c>
+      <c r="H157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>139</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>236</v>
+      </c>
+      <c r="F158" t="s">
+        <v>135</v>
+      </c>
+      <c r="G158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>140</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>236</v>
+      </c>
+      <c r="F159" t="s">
+        <v>135</v>
+      </c>
+      <c r="G159" t="s">
+        <v>26</v>
+      </c>
+      <c r="H159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>141</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>236</v>
+      </c>
+      <c r="F160" t="s">
+        <v>135</v>
+      </c>
+      <c r="G160" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>142</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>236</v>
+      </c>
+      <c r="F161" t="s">
+        <v>32</v>
+      </c>
+      <c r="G161" t="s">
+        <v>135</v>
+      </c>
+      <c r="H161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>143</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>236</v>
+      </c>
+      <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s">
+        <v>135</v>
+      </c>
+      <c r="H162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>144</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>236</v>
+      </c>
+      <c r="F163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163" t="s">
+        <v>135</v>
+      </c>
+      <c r="H163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>145</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>236</v>
+      </c>
+      <c r="F164" t="s">
+        <v>41</v>
+      </c>
+      <c r="G164" t="s">
+        <v>135</v>
+      </c>
+      <c r="H164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>146</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>236</v>
+      </c>
+      <c r="F165" t="s">
+        <v>44</v>
+      </c>
+      <c r="G165" t="s">
+        <v>135</v>
+      </c>
+      <c r="H165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>147</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>236</v>
+      </c>
+      <c r="F166" t="s">
+        <v>135</v>
+      </c>
+      <c r="G166" t="s">
+        <v>47</v>
+      </c>
+      <c r="H166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>148</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s">
+        <v>236</v>
+      </c>
+      <c r="F167" t="s">
+        <v>135</v>
+      </c>
+      <c r="G167" t="s">
+        <v>50</v>
+      </c>
+      <c r="H167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>149</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>236</v>
+      </c>
+      <c r="F168" t="s">
+        <v>135</v>
+      </c>
+      <c r="G168" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>150</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
+        <v>236</v>
+      </c>
+      <c r="F169" t="s">
+        <v>135</v>
+      </c>
+      <c r="G169" t="s">
+        <v>56</v>
+      </c>
+      <c r="H169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>151</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" t="s">
+        <v>236</v>
+      </c>
+      <c r="F170" t="s">
+        <v>59</v>
+      </c>
+      <c r="G170" t="s">
+        <v>135</v>
+      </c>
+      <c r="H170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>152</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>62</v>
+      </c>
+      <c r="F171" t="s">
+        <v>236</v>
+      </c>
+      <c r="G171" t="s">
+        <v>135</v>
+      </c>
+      <c r="H171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>238</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
+        <v>239</v>
+      </c>
+      <c r="F172" t="s">
+        <v>236</v>
+      </c>
+      <c r="G172" t="s">
+        <v>135</v>
+      </c>
+      <c r="H172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>153</v>
+      </c>
+      <c r="E174" t="s">
+        <v>154</v>
+      </c>
+      <c r="F174" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>156</v>
+      </c>
+      <c r="E175" t="s">
+        <v>157</v>
+      </c>
+      <c r="F175" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>158</v>
+      </c>
+      <c r="E176" t="s">
+        <v>154</v>
+      </c>
+      <c r="F176" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>160</v>
+      </c>
+      <c r="E177" t="s">
+        <v>154</v>
+      </c>
+      <c r="F177" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>162</v>
+      </c>
+      <c r="E178" t="s">
+        <v>154</v>
+      </c>
+      <c r="F178" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>164</v>
+      </c>
+      <c r="E179" t="s">
+        <v>154</v>
+      </c>
+      <c r="F179" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>166</v>
+      </c>
+      <c r="E180" t="s">
+        <v>154</v>
+      </c>
+      <c r="F180" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>168</v>
+      </c>
+      <c r="E181" t="s">
+        <v>154</v>
+      </c>
+      <c r="F181" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>170</v>
+      </c>
+      <c r="E182" t="s">
+        <v>171</v>
+      </c>
+      <c r="F182" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>172</v>
+      </c>
+      <c r="E183" t="s">
+        <v>154</v>
+      </c>
+      <c r="F183" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>174</v>
+      </c>
+      <c r="E184" t="s">
+        <v>154</v>
+      </c>
+      <c r="F184" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>176</v>
+      </c>
+      <c r="E185" t="s">
+        <v>154</v>
+      </c>
+      <c r="F185" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>178</v>
+      </c>
+      <c r="E186" t="s">
+        <v>154</v>
+      </c>
+      <c r="F186" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>180</v>
+      </c>
+      <c r="E187" t="s">
+        <v>154</v>
+      </c>
+      <c r="F187" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>182</v>
+      </c>
+      <c r="E188" t="s">
+        <v>154</v>
+      </c>
+      <c r="F188" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>184</v>
+      </c>
+      <c r="E189" t="s">
+        <v>154</v>
+      </c>
+      <c r="F189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>186</v>
+      </c>
+      <c r="E190" t="s">
+        <v>154</v>
+      </c>
+      <c r="F190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>188</v>
+      </c>
+      <c r="E191" t="s">
+        <v>154</v>
+      </c>
+      <c r="F191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>190</v>
+      </c>
+      <c r="E192" t="s">
+        <v>154</v>
+      </c>
+      <c r="F192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>192</v>
+      </c>
+      <c r="E193" t="s">
+        <v>193</v>
+      </c>
+      <c r="F193" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" t="s">
+        <v>154</v>
+      </c>
+      <c r="F194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>196</v>
+      </c>
+      <c r="E195" t="s">
+        <v>154</v>
+      </c>
+      <c r="F195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>198</v>
+      </c>
+      <c r="E196" t="s">
+        <v>154</v>
+      </c>
+      <c r="F196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>200</v>
+      </c>
+      <c r="E197" t="s">
+        <v>154</v>
+      </c>
+      <c r="F197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>202</v>
+      </c>
+      <c r="E198" t="s">
+        <v>203</v>
+      </c>
+      <c r="F198" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>205</v>
+      </c>
+      <c r="D199" t="s">
+        <v>92</v>
+      </c>
+      <c r="E199" t="s">
+        <v>203</v>
+      </c>
+      <c r="F199" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>206</v>
+      </c>
+      <c r="E200" t="s">
+        <v>207</v>
+      </c>
+      <c r="F200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>208</v>
+      </c>
+      <c r="E201" t="s">
+        <v>209</v>
+      </c>
+      <c r="F201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>210</v>
+      </c>
+      <c r="E202" t="s">
+        <v>211</v>
+      </c>
+      <c r="F202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>212</v>
+      </c>
+      <c r="E203" t="s">
+        <v>213</v>
+      </c>
+      <c r="F203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>214</v>
+      </c>
+      <c r="E204" t="s">
+        <v>215</v>
+      </c>
+      <c r="F204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>216</v>
+      </c>
+      <c r="E205" t="s">
+        <v>217</v>
+      </c>
+      <c r="F205" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>219</v>
+      </c>
+      <c r="E206" t="s">
+        <v>155</v>
+      </c>
+      <c r="F206" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>220</v>
+      </c>
+      <c r="E207" t="s">
+        <v>157</v>
+      </c>
+      <c r="F207" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>221</v>
+      </c>
+      <c r="E208" t="s">
+        <v>163</v>
+      </c>
+      <c r="F208" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>222</v>
+      </c>
+      <c r="E209" t="s">
+        <v>165</v>
+      </c>
+      <c r="F209" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>223</v>
+      </c>
+      <c r="E210" t="s">
+        <v>224</v>
+      </c>
+      <c r="F210" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>225</v>
+      </c>
+      <c r="E211" t="s">
+        <v>226</v>
+      </c>
+      <c r="F211" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>227</v>
+      </c>
+      <c r="E212" t="s">
+        <v>171</v>
+      </c>
+      <c r="F212" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>228</v>
+      </c>
+      <c r="E213" t="s">
+        <v>173</v>
+      </c>
+      <c r="F213" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>229</v>
+      </c>
+      <c r="E214" t="s">
+        <v>218</v>
+      </c>
+      <c r="F214" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>136</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" t="s">
+        <v>237</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" t="s">
+        <v>135</v>
+      </c>
+      <c r="H219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>137</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>237</v>
+      </c>
+      <c r="F220" t="s">
+        <v>17</v>
+      </c>
+      <c r="G220" t="s">
+        <v>135</v>
+      </c>
+      <c r="H220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>138</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" t="s">
+        <v>237</v>
+      </c>
+      <c r="F221" t="s">
+        <v>20</v>
+      </c>
+      <c r="G221" t="s">
+        <v>135</v>
+      </c>
+      <c r="H221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>139</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" t="s">
+        <v>237</v>
+      </c>
+      <c r="F222" t="s">
+        <v>135</v>
+      </c>
+      <c r="G222" t="s">
+        <v>23</v>
+      </c>
+      <c r="H222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>140</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s">
+        <v>237</v>
+      </c>
+      <c r="F223" t="s">
+        <v>135</v>
+      </c>
+      <c r="G223" t="s">
+        <v>26</v>
+      </c>
+      <c r="H223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>141</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" t="s">
+        <v>237</v>
+      </c>
+      <c r="F224" t="s">
+        <v>135</v>
+      </c>
+      <c r="G224" t="s">
+        <v>10</v>
+      </c>
+      <c r="H224" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>142</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" t="s">
+        <v>32</v>
+      </c>
+      <c r="F225" t="s">
+        <v>237</v>
+      </c>
+      <c r="G225" t="s">
+        <v>135</v>
+      </c>
+      <c r="H225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>143</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>237</v>
+      </c>
+      <c r="F226" t="s">
+        <v>35</v>
+      </c>
+      <c r="G226" t="s">
+        <v>135</v>
+      </c>
+      <c r="H226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>144</v>
+      </c>
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" t="s">
+        <v>38</v>
+      </c>
+      <c r="F227" t="s">
+        <v>237</v>
+      </c>
+      <c r="G227" t="s">
+        <v>135</v>
+      </c>
+      <c r="H227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>145</v>
+      </c>
+      <c r="D228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" t="s">
+        <v>237</v>
+      </c>
+      <c r="F228" t="s">
+        <v>41</v>
+      </c>
+      <c r="G228" t="s">
+        <v>135</v>
+      </c>
+      <c r="H228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>146</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" t="s">
+        <v>237</v>
+      </c>
+      <c r="F229" t="s">
+        <v>44</v>
+      </c>
+      <c r="G229" t="s">
+        <v>135</v>
+      </c>
+      <c r="H229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>147</v>
+      </c>
+      <c r="D230" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" t="s">
+        <v>237</v>
+      </c>
+      <c r="F230" t="s">
+        <v>135</v>
+      </c>
+      <c r="G230" t="s">
+        <v>47</v>
+      </c>
+      <c r="H230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>148</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" t="s">
+        <v>237</v>
+      </c>
+      <c r="F231" t="s">
+        <v>135</v>
+      </c>
+      <c r="G231" t="s">
+        <v>50</v>
+      </c>
+      <c r="H231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>149</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" t="s">
+        <v>237</v>
+      </c>
+      <c r="F232" t="s">
+        <v>135</v>
+      </c>
+      <c r="G232" t="s">
+        <v>10</v>
+      </c>
+      <c r="H232" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>150</v>
+      </c>
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" t="s">
+        <v>237</v>
+      </c>
+      <c r="F233" t="s">
+        <v>135</v>
+      </c>
+      <c r="G233" t="s">
+        <v>56</v>
+      </c>
+      <c r="H233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>151</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>59</v>
+      </c>
+      <c r="F234" t="s">
+        <v>237</v>
+      </c>
+      <c r="G234" t="s">
+        <v>135</v>
+      </c>
+      <c r="H234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>152</v>
+      </c>
+      <c r="D235" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" t="s">
+        <v>62</v>
+      </c>
+      <c r="F235" t="s">
+        <v>237</v>
+      </c>
+      <c r="G235" t="s">
+        <v>135</v>
+      </c>
+      <c r="H235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>153</v>
+      </c>
+      <c r="E237" t="s">
+        <v>154</v>
+      </c>
+      <c r="F237" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>156</v>
+      </c>
+      <c r="E238" t="s">
+        <v>157</v>
+      </c>
+      <c r="F238" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>158</v>
+      </c>
+      <c r="E239" t="s">
+        <v>154</v>
+      </c>
+      <c r="F239" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>160</v>
+      </c>
+      <c r="E240" t="s">
+        <v>154</v>
+      </c>
+      <c r="F240" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>162</v>
+      </c>
+      <c r="E241" t="s">
+        <v>154</v>
+      </c>
+      <c r="F241" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>164</v>
+      </c>
+      <c r="E242" t="s">
+        <v>154</v>
+      </c>
+      <c r="F242" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>166</v>
+      </c>
+      <c r="E243" t="s">
+        <v>154</v>
+      </c>
+      <c r="F243" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>168</v>
+      </c>
+      <c r="E244" t="s">
+        <v>154</v>
+      </c>
+      <c r="F244" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>170</v>
+      </c>
+      <c r="E245" t="s">
+        <v>171</v>
+      </c>
+      <c r="F245" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>172</v>
+      </c>
+      <c r="E246" t="s">
+        <v>154</v>
+      </c>
+      <c r="F246" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>174</v>
+      </c>
+      <c r="E247" t="s">
+        <v>154</v>
+      </c>
+      <c r="F247" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>176</v>
+      </c>
+      <c r="E248" t="s">
+        <v>154</v>
+      </c>
+      <c r="F248" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>178</v>
+      </c>
+      <c r="E249" t="s">
+        <v>154</v>
+      </c>
+      <c r="F249" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>180</v>
+      </c>
+      <c r="E250" t="s">
+        <v>154</v>
+      </c>
+      <c r="F250" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>182</v>
+      </c>
+      <c r="E251" t="s">
+        <v>154</v>
+      </c>
+      <c r="F251" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>184</v>
+      </c>
+      <c r="E252" t="s">
+        <v>154</v>
+      </c>
+      <c r="F252" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>186</v>
+      </c>
+      <c r="E253" t="s">
+        <v>154</v>
+      </c>
+      <c r="F253" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>188</v>
+      </c>
+      <c r="E254" t="s">
+        <v>154</v>
+      </c>
+      <c r="F254" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>190</v>
+      </c>
+      <c r="E255" t="s">
+        <v>154</v>
+      </c>
+      <c r="F255" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>192</v>
+      </c>
+      <c r="E256" t="s">
+        <v>193</v>
+      </c>
+      <c r="F256" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>194</v>
+      </c>
+      <c r="E257" t="s">
+        <v>154</v>
+      </c>
+      <c r="F257" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>196</v>
+      </c>
+      <c r="E258" t="s">
+        <v>154</v>
+      </c>
+      <c r="F258" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>198</v>
+      </c>
+      <c r="E259" t="s">
+        <v>154</v>
+      </c>
+      <c r="F259" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>200</v>
+      </c>
+      <c r="E260" t="s">
+        <v>154</v>
+      </c>
+      <c r="F260" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>202</v>
+      </c>
+      <c r="E261" t="s">
+        <v>203</v>
+      </c>
+      <c r="F261" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>205</v>
+      </c>
+      <c r="D262" t="s">
+        <v>92</v>
+      </c>
+      <c r="E262" t="s">
+        <v>203</v>
+      </c>
+      <c r="F262" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>206</v>
+      </c>
+      <c r="E263" t="s">
+        <v>207</v>
+      </c>
+      <c r="F263" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>208</v>
+      </c>
+      <c r="E264" t="s">
+        <v>209</v>
+      </c>
+      <c r="F264" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>210</v>
+      </c>
+      <c r="E265" t="s">
+        <v>211</v>
+      </c>
+      <c r="F265" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>212</v>
+      </c>
+      <c r="E266" t="s">
+        <v>213</v>
+      </c>
+      <c r="F266" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>214</v>
+      </c>
+      <c r="E267" t="s">
+        <v>215</v>
+      </c>
+      <c r="F267" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>216</v>
+      </c>
+      <c r="E268" t="s">
+        <v>217</v>
+      </c>
+      <c r="F268" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>219</v>
+      </c>
+      <c r="E269" t="s">
+        <v>155</v>
+      </c>
+      <c r="F269" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>220</v>
+      </c>
+      <c r="E270" t="s">
+        <v>157</v>
+      </c>
+      <c r="F270" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>221</v>
+      </c>
+      <c r="E271" t="s">
+        <v>163</v>
+      </c>
+      <c r="F271" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>222</v>
+      </c>
+      <c r="E272" t="s">
+        <v>165</v>
+      </c>
+      <c r="F272" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>223</v>
+      </c>
+      <c r="E273" t="s">
+        <v>224</v>
+      </c>
+      <c r="F273" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>225</v>
+      </c>
+      <c r="E274" t="s">
+        <v>226</v>
+      </c>
+      <c r="F274" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>227</v>
+      </c>
+      <c r="E275" t="s">
+        <v>171</v>
+      </c>
+      <c r="F275" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>228</v>
+      </c>
+      <c r="E276" t="s">
+        <v>173</v>
+      </c>
+      <c r="F276" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>229</v>
+      </c>
+      <c r="E277" t="s">
+        <v>218</v>
+      </c>
+      <c r="F277" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H277" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>